--- a/public/templates/IT_WBS.xlsx
+++ b/public/templates/IT_WBS.xlsx
@@ -500,7 +500,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,7 +514,7 @@
     <row r="1" ht="21" customHeight="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>IT IMPLEMENTATION WBS - COMPREHENSIVE PROJECT PLAN</t>
+          <t>INFORMATION TECHNOLOGY IMPLEMENTATION WBS - COMPREHENSIVE PROJECT PLAN</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>This IT WBS WBS contains 11 comprehensive phases with 178 detailed tasks,</t>
+          <t>This IT Implementation WBS contains 11 comprehensive phases with 178 detailed tasks,</t>
         </is>
       </c>
     </row>
@@ -569,63 +569,63 @@
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>3. AI/ML Design and Planning - Requirements analysis, system design, documentation</t>
+          <t>3. IT Design and Planning - Requirements analysis, system design, documentation</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>4. AI/ML Compliance and Regulatory - Compliance frameworks, regulatory approvals</t>
+          <t>4. IT Compliance and Regulatory - Compliance frameworks, regulatory approvals</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>5. AI/ML Procurement and Contracting - Vendor selection, procurement, equipment</t>
+          <t>5. IT Procurement and Contracting - Vendor selection, procurement, equipment</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>6. AI/ML Implementation - Installation, configuration, integration, testing</t>
+          <t>6. IT Implementation - Installation, configuration, integration, testing</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>7. AI/ML Testing and Validation - System testing, performance validation, acceptance</t>
+          <t>7. IT Testing and Validation - System testing, performance validation, acceptance</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>8. AI/ML Documentation and Training - Technical documentation, user training</t>
+          <t>8. IT Documentation and Training - Technical documentation, user training</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>9. AI/ML Walkthrough and Handover - Deployment preparation, system handover</t>
+          <t>9. IT Walkthrough and Handover - Deployment preparation, system handover</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>10. AI/ML Project Close-out - Administrative closure, lessons learned, final reporting</t>
+          <t>10. IT Project Close-out - Administrative closure, lessons learned, final reporting</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>11. AI/ML Steady-State Support - Production support, maintenance, continuous improvement</t>
+          <t>11. IT Steady-State Support - Production support, maintenance, continuous improvement</t>
         </is>
       </c>
     </row>
@@ -635,7 +635,7 @@
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>AI/ML SPECIFIC FEATURES:</t>
+          <t>IT SPECIFIC FEATURES:</t>
         </is>
       </c>
     </row>
@@ -648,7 +648,7 @@
 - Change management and training
 - Quality assurance and control
 - Continuous improvement processes
-- AI/ML excellence initiatives</t>
+- IT excellence initiatives</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
       </c>
       <c r="C2" s="6" t="inlineStr">
         <is>
-          <t>AI/ML Project Initiation [Deliverable: Project Initiation Report]</t>
+          <t>IT Project Initiation [Deliverable: Project Initiation Report]</t>
         </is>
       </c>
       <c r="D2" s="6" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML Project Charter Development [Deliverable: Signed Project Charter]</t>
+          <t xml:space="preserve">    IT Project Charter Development [Deliverable: Signed Project Charter]</t>
         </is>
       </c>
       <c r="D3" s="9" t="inlineStr">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">        AI/ML Requirements Definition [Deliverable: Requirements Document]</t>
+          <t xml:space="preserve">        IT Requirements Definition [Deliverable: Requirements Document]</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>AI/ML Analyst</t>
+          <t>IT Analyst</t>
         </is>
       </c>
       <c r="L5" s="21" t="n">
@@ -1265,7 +1265,7 @@
       </c>
       <c r="C8" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML Stakeholder Management [Deliverable: Stakeholder Management Plan]</t>
+          <t xml:space="preserve">    IT Stakeholder Management [Deliverable: Stakeholder Management Plan]</t>
         </is>
       </c>
       <c r="D8" s="9" t="inlineStr">
@@ -1650,7 +1650,7 @@
       </c>
       <c r="C13" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML Initial Planning [Deliverable: Initial Project Plan]</t>
+          <t xml:space="preserve">    IT Initial Planning [Deliverable: Initial Project Plan]</t>
         </is>
       </c>
       <c r="D13" s="9" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C18" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML Project Initiation Approval [Deliverable: Signed Initiation Approval]</t>
+          <t xml:space="preserve">    IT Project Initiation Approval [Deliverable: Signed Initiation Approval]</t>
         </is>
       </c>
       <c r="D18" s="14" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="C19" s="6" t="inlineStr">
         <is>
-          <t>AI/ML Budget Planning and Management [Deliverable: Budget Management Report]</t>
+          <t>IT Budget Planning and Management [Deliverable: Budget Management Report]</t>
         </is>
       </c>
       <c r="D19" s="6" t="inlineStr">
@@ -2190,7 +2190,7 @@
       </c>
       <c r="C20" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML Budget Development [Deliverable: Approved Budget Plan]</t>
+          <t xml:space="preserve">    IT Budget Development [Deliverable: Approved Budget Plan]</t>
         </is>
       </c>
       <c r="D20" s="9" t="inlineStr">
@@ -2344,7 +2344,7 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">        AI/ML Equipment Costs [Deliverable: Equipment Cost Report]</t>
+          <t xml:space="preserve">        IT Equipment Costs [Deliverable: Equipment Cost Report]</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
@@ -2373,7 +2373,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>AI/ML Procurement Lead</t>
+          <t>IT Procurement Lead</t>
         </is>
       </c>
       <c r="L22" s="21" t="n">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="C25" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML Budget Control and Tracking [Deliverable: Budget Control System]</t>
+          <t xml:space="preserve">    IT Budget Control and Tracking [Deliverable: Budget Control System]</t>
         </is>
       </c>
       <c r="D25" s="9" t="inlineStr">
@@ -2883,7 +2883,7 @@
       </c>
       <c r="C29" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML Budget Management Approval [Deliverable: Budget Management Approval]</t>
+          <t xml:space="preserve">    IT Budget Management Approval [Deliverable: Budget Management Approval]</t>
         </is>
       </c>
       <c r="D29" s="14" t="inlineStr">
@@ -2960,7 +2960,7 @@
       </c>
       <c r="C30" s="6" t="inlineStr">
         <is>
-          <t>AI/ML Design and Planning [Deliverable: Design Package]</t>
+          <t>IT Design and Planning [Deliverable: Design Package]</t>
         </is>
       </c>
       <c r="D30" s="6" t="inlineStr">
@@ -2990,7 +2990,7 @@
       </c>
       <c r="K30" s="6" t="inlineStr">
         <is>
-          <t>AI/ML Solution Architect</t>
+          <t>IT Solution Architect</t>
         </is>
       </c>
       <c r="L30" s="19" t="n">
@@ -3038,7 +3038,7 @@
       </c>
       <c r="C31" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML Requirements Analysis [Deliverable: Requirements Specification]</t>
+          <t xml:space="preserve">    IT Requirements Analysis [Deliverable: Requirements Specification]</t>
         </is>
       </c>
       <c r="D31" s="9" t="inlineStr">
@@ -3423,7 +3423,7 @@
       </c>
       <c r="C36" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML System Design [Deliverable: System Design Document]</t>
+          <t xml:space="preserve">    IT System Design [Deliverable: System Design Document]</t>
         </is>
       </c>
       <c r="D36" s="9" t="inlineStr">
@@ -3808,7 +3808,7 @@
       </c>
       <c r="C41" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML Documentation [Deliverable: Design Documentation Package]</t>
+          <t xml:space="preserve">    IT Documentation [Deliverable: Design Documentation Package]</t>
         </is>
       </c>
       <c r="D41" s="9" t="inlineStr">
@@ -3962,7 +3962,7 @@
       </c>
       <c r="C43" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML Design Approval [Deliverable: Signed Design Approval]</t>
+          <t xml:space="preserve">    IT Design Approval [Deliverable: Signed Design Approval]</t>
         </is>
       </c>
       <c r="D43" s="14" t="inlineStr">
@@ -4039,7 +4039,7 @@
       </c>
       <c r="C44" s="6" t="inlineStr">
         <is>
-          <t>AI/ML Compliance and Regulatory [Deliverable: Compliance Report]</t>
+          <t>IT Compliance and Regulatory [Deliverable: Compliance Report]</t>
         </is>
       </c>
       <c r="D44" s="6" t="inlineStr">
@@ -4117,7 +4117,7 @@
       </c>
       <c r="C45" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML Compliance Assessment [Deliverable: Compliance Assessment Report]</t>
+          <t xml:space="preserve">    IT Compliance Assessment [Deliverable: Compliance Assessment Report]</t>
         </is>
       </c>
       <c r="D45" s="9" t="inlineStr">
@@ -4579,7 +4579,7 @@
       </c>
       <c r="C51" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML Regulatory Approvals [Deliverable: Regulatory Approval Documents]</t>
+          <t xml:space="preserve">    IT Regulatory Approvals [Deliverable: Regulatory Approval Documents]</t>
         </is>
       </c>
       <c r="D51" s="9" t="inlineStr">
@@ -5041,7 +5041,7 @@
       </c>
       <c r="C57" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML Compliance Documentation [Deliverable: Compliance Documentation]</t>
+          <t xml:space="preserve">    IT Compliance Documentation [Deliverable: Compliance Documentation]</t>
         </is>
       </c>
       <c r="D57" s="9" t="inlineStr">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="C59" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML Compliance Approval [Deliverable: Signed Compliance Approval]</t>
+          <t xml:space="preserve">    IT Compliance Approval [Deliverable: Signed Compliance Approval]</t>
         </is>
       </c>
       <c r="D59" s="14" t="inlineStr">
@@ -5272,7 +5272,7 @@
       </c>
       <c r="C60" s="6" t="inlineStr">
         <is>
-          <t>AI/ML Procurement and Contracting [Deliverable: Procurement Package]</t>
+          <t>IT Procurement and Contracting [Deliverable: Procurement Package]</t>
         </is>
       </c>
       <c r="D60" s="6" t="inlineStr">
@@ -5350,7 +5350,7 @@
       </c>
       <c r="C61" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML Vendor Selection [Deliverable: Selected Vendor List]</t>
+          <t xml:space="preserve">    IT Vendor Selection [Deliverable: Selected Vendor List]</t>
         </is>
       </c>
       <c r="D61" s="9" t="inlineStr">
@@ -5889,7 +5889,7 @@
       </c>
       <c r="C68" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML Equipment Procurement [Deliverable: Procured Equipment]</t>
+          <t xml:space="preserve">    IT Equipment Procurement [Deliverable: Procured Equipment]</t>
         </is>
       </c>
       <c r="D68" s="9" t="inlineStr">
@@ -6274,7 +6274,7 @@
       </c>
       <c r="C73" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML Procurement Documentation [Deliverable: Procurement Documentation]</t>
+          <t xml:space="preserve">    IT Procurement Documentation [Deliverable: Procurement Documentation]</t>
         </is>
       </c>
       <c r="D73" s="9" t="inlineStr">
@@ -6351,7 +6351,7 @@
       </c>
       <c r="C74" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML Procurement Completion [Deliverable: Procurement Completion Certificate]</t>
+          <t xml:space="preserve">    IT Procurement Completion [Deliverable: Procurement Completion Certificate]</t>
         </is>
       </c>
       <c r="D74" s="14" t="inlineStr">
@@ -6428,7 +6428,7 @@
       </c>
       <c r="C75" s="6" t="inlineStr">
         <is>
-          <t>AI/ML Implementation [Deliverable: Implemented System]</t>
+          <t>IT Implementation [Deliverable: Implemented System]</t>
         </is>
       </c>
       <c r="D75" s="6" t="inlineStr">
@@ -6506,7 +6506,7 @@
       </c>
       <c r="C76" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML Installation and Setup [Deliverable: Installed System]</t>
+          <t xml:space="preserve">    IT Installation and Setup [Deliverable: Installed System]</t>
         </is>
       </c>
       <c r="D76" s="9" t="inlineStr">
@@ -7045,7 +7045,7 @@
       </c>
       <c r="C83" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML Integration and Configuration [Deliverable: Integrated System]</t>
+          <t xml:space="preserve">    IT Integration and Configuration [Deliverable: Integrated System]</t>
         </is>
       </c>
       <c r="D83" s="9" t="inlineStr">
@@ -7661,7 +7661,7 @@
       </c>
       <c r="C91" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML Final Implementation [Deliverable: Final Implementation Report]</t>
+          <t xml:space="preserve">    IT Final Implementation [Deliverable: Final Implementation Report]</t>
         </is>
       </c>
       <c r="D91" s="9" t="inlineStr">
@@ -8123,7 +8123,7 @@
       </c>
       <c r="C97" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML Implementation Completion [Deliverable: Implementation Completion Certificate]</t>
+          <t xml:space="preserve">    IT Implementation Completion [Deliverable: Implementation Completion Certificate]</t>
         </is>
       </c>
       <c r="D97" s="14" t="inlineStr">
@@ -8200,7 +8200,7 @@
       </c>
       <c r="C98" s="6" t="inlineStr">
         <is>
-          <t>AI/ML Testing and Validation [Deliverable: Testing Report]</t>
+          <t>IT Testing and Validation [Deliverable: Testing Report]</t>
         </is>
       </c>
       <c r="D98" s="6" t="inlineStr">
@@ -8278,7 +8278,7 @@
       </c>
       <c r="C99" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML System Testing [Deliverable: System Test Results]</t>
+          <t xml:space="preserve">    IT System Testing [Deliverable: System Test Results]</t>
         </is>
       </c>
       <c r="D99" s="9" t="inlineStr">
@@ -8817,7 +8817,7 @@
       </c>
       <c r="C106" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML User Acceptance Testing [Deliverable: UAT Results]</t>
+          <t xml:space="preserve">    IT User Acceptance Testing [Deliverable: UAT Results]</t>
         </is>
       </c>
       <c r="D106" s="9" t="inlineStr">
@@ -9279,7 +9279,7 @@
       </c>
       <c r="C112" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML Final Validation [Deliverable: Final Validation Report]</t>
+          <t xml:space="preserve">    IT Final Validation [Deliverable: Final Validation Report]</t>
         </is>
       </c>
       <c r="D112" s="9" t="inlineStr">
@@ -9510,7 +9510,7 @@
       </c>
       <c r="C115" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML Testing Completion [Deliverable: Testing Completion Certificate]</t>
+          <t xml:space="preserve">    IT Testing Completion [Deliverable: Testing Completion Certificate]</t>
         </is>
       </c>
       <c r="D115" s="14" t="inlineStr">
@@ -9587,7 +9587,7 @@
       </c>
       <c r="C116" s="6" t="inlineStr">
         <is>
-          <t>AI/ML Documentation and Training [Deliverable: Documentation and Training Package]</t>
+          <t>IT Documentation and Training [Deliverable: Documentation and Training Package]</t>
         </is>
       </c>
       <c r="D116" s="6" t="inlineStr">
@@ -9665,7 +9665,7 @@
       </c>
       <c r="C117" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML Technical Documentation [Deliverable: Technical Documentation Package]</t>
+          <t xml:space="preserve">    IT Technical Documentation [Deliverable: Technical Documentation Package]</t>
         </is>
       </c>
       <c r="D117" s="9" t="inlineStr">
@@ -10127,7 +10127,7 @@
       </c>
       <c r="C123" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML User Training [Deliverable: Trained Users]</t>
+          <t xml:space="preserve">    IT User Training [Deliverable: Trained Users]</t>
         </is>
       </c>
       <c r="D123" s="9" t="inlineStr">
@@ -10589,7 +10589,7 @@
       </c>
       <c r="C129" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML Documentation and Training Completion [Deliverable: Documentation and Training Completion Certificate]</t>
+          <t xml:space="preserve">    IT Documentation and Training Completion [Deliverable: Documentation and Training Completion Certificate]</t>
         </is>
       </c>
       <c r="D129" s="14" t="inlineStr">
@@ -10666,7 +10666,7 @@
       </c>
       <c r="C130" s="6" t="inlineStr">
         <is>
-          <t>AI/ML Walkthrough and Handover [Deliverable: Handover Package]</t>
+          <t>IT Walkthrough and Handover [Deliverable: Handover Package]</t>
         </is>
       </c>
       <c r="D130" s="6" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="C131" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML Pre-Deployment Activities [Deliverable: Pre-Deployment Checklist]</t>
+          <t xml:space="preserve">    IT Pre-Deployment Activities [Deliverable: Pre-Deployment Checklist]</t>
         </is>
       </c>
       <c r="D131" s="9" t="inlineStr">
@@ -11206,7 +11206,7 @@
       </c>
       <c r="C137" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML Go-Live Activities [Deliverable: Go-Live Report]</t>
+          <t xml:space="preserve">    IT Go-Live Activities [Deliverable: Go-Live Report]</t>
         </is>
       </c>
       <c r="D137" s="9" t="inlineStr">
@@ -11591,7 +11591,7 @@
       </c>
       <c r="C142" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML System Handover [Deliverable: System Handover Package]</t>
+          <t xml:space="preserve">    IT System Handover [Deliverable: System Handover Package]</t>
         </is>
       </c>
       <c r="D142" s="9" t="inlineStr">
@@ -11899,7 +11899,7 @@
       </c>
       <c r="C146" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML Handover Completion [Deliverable: Handover Completion Certificate]</t>
+          <t xml:space="preserve">    IT Handover Completion [Deliverable: Handover Completion Certificate]</t>
         </is>
       </c>
       <c r="D146" s="14" t="inlineStr">
@@ -11976,7 +11976,7 @@
       </c>
       <c r="C147" s="6" t="inlineStr">
         <is>
-          <t>AI/ML Project Close-out [Deliverable: Project Close-out Report]</t>
+          <t>IT Project Close-out [Deliverable: Project Close-out Report]</t>
         </is>
       </c>
       <c r="D147" s="6" t="inlineStr">
@@ -12054,7 +12054,7 @@
       </c>
       <c r="C148" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML Administrative Closure [Deliverable: Administrative Closure Package]</t>
+          <t xml:space="preserve">    IT Administrative Closure [Deliverable: Administrative Closure Package]</t>
         </is>
       </c>
       <c r="D148" s="9" t="inlineStr">
@@ -12439,7 +12439,7 @@
       </c>
       <c r="C153" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML Lessons Learned [Deliverable: Lessons Learned Report]</t>
+          <t xml:space="preserve">    IT Lessons Learned [Deliverable: Lessons Learned Report]</t>
         </is>
       </c>
       <c r="D153" s="9" t="inlineStr">
@@ -12747,7 +12747,7 @@
       </c>
       <c r="C157" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML Final Reporting [Deliverable: Final Project Report]</t>
+          <t xml:space="preserve">    IT Final Reporting [Deliverable: Final Project Report]</t>
         </is>
       </c>
       <c r="D157" s="9" t="inlineStr">
@@ -12901,7 +12901,7 @@
       </c>
       <c r="C159" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML Project Closure [Deliverable: Project Closure Certificate]</t>
+          <t xml:space="preserve">    IT Project Closure [Deliverable: Project Closure Certificate]</t>
         </is>
       </c>
       <c r="D159" s="14" t="inlineStr">
@@ -12978,7 +12978,7 @@
       </c>
       <c r="C160" s="6" t="inlineStr">
         <is>
-          <t>AI/ML Steady-State Support [Deliverable: Steady-State Support Plan]</t>
+          <t>IT Steady-State Support [Deliverable: Steady-State Support Plan]</t>
         </is>
       </c>
       <c r="D160" s="6" t="inlineStr">
@@ -13054,7 +13054,7 @@
       </c>
       <c r="C161" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML Production Support [Deliverable: Production Support Services]</t>
+          <t xml:space="preserve">    IT Production Support [Deliverable: Production Support Services]</t>
         </is>
       </c>
       <c r="D161" s="9" t="inlineStr">
@@ -13516,7 +13516,7 @@
       </c>
       <c r="C167" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML Maintenance and Updates [Deliverable: Maintenance Services]</t>
+          <t xml:space="preserve">    IT Maintenance and Updates [Deliverable: Maintenance Services]</t>
         </is>
       </c>
       <c r="D167" s="9" t="inlineStr">
@@ -13901,7 +13901,7 @@
       </c>
       <c r="C172" s="9" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML Continuous Improvement [Deliverable: Improvement Initiatives]</t>
+          <t xml:space="preserve">    IT Continuous Improvement [Deliverable: Improvement Initiatives]</t>
         </is>
       </c>
       <c r="D172" s="9" t="inlineStr">
@@ -14209,7 +14209,7 @@
       </c>
       <c r="C176" s="14" t="inlineStr">
         <is>
-          <t xml:space="preserve">    AI/ML Steady-State Establishment [Deliverable: Steady-State Establishment Certificate]</t>
+          <t xml:space="preserve">    IT Steady-State Establishment [Deliverable: Steady-State Establishment Certificate]</t>
         </is>
       </c>
       <c r="D176" s="14" t="inlineStr">
